--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1928665.602459126</v>
+        <v>1926123.970865447</v>
       </c>
     </row>
     <row r="7">
@@ -674,10 +674,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.3652991436814</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>133.8333590606435</v>
+        <v>37.11181591693564</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.97021545617187</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714241</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>36.39469600159732</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>54.30560650378673</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845829</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>66.44208389990435</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>349.2299344537568</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>316.5411660097068</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.538236240781</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>180.2305285014423</v>
       </c>
       <c r="W5" t="n">
-        <v>349.2299344537553</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>349.2299344537553</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2299344537568</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>118.7336194945293</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612071</v>
+        <v>2.433127121192638</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.5357799573319</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>34.26303176782144</v>
       </c>
       <c r="X7" t="n">
-        <v>137.0708419396685</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>24.05651136016328</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>199.6452357812547</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>239.3135884893127</v>
+        <v>21.21812042899047</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>107.9721668030643</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826188888</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>40.6225301034174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>104.8913819999782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.4528255976022</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184729</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016431</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>105.650786789956</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>115.4764219077142</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358159</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>78.91051008677871</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057063</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832527</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832527</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912179</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330558</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020258</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201462</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201462</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201462</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036616</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="V2" t="n">
-        <v>414.0172523312945</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="W2" t="n">
-        <v>224.5974673148098</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="X2" t="n">
-        <v>35.17768229832527</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.17768229832527</v>
+        <v>351.3361714764006</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>644.1614988942544</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546597</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017055</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>722.919292284327</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>722.919292284327</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T3" t="n">
-        <v>722.919292284327</v>
+        <v>409.399488203391</v>
       </c>
       <c r="U3" t="n">
-        <v>722.919292284327</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="V3" t="n">
-        <v>722.919292284327</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="W3" t="n">
-        <v>722.919292284327</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="X3" t="n">
-        <v>722.919292284327</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y3" t="n">
-        <v>722.919292284327</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.8859279516574</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="C4" t="n">
-        <v>313.0317799680344</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="D4" t="n">
-        <v>162.9151405556987</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330558</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330558</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330558</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349381</v>
+        <v>118.7527324484195</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295946</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242512</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608012</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846266</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846266</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846266</v>
+        <v>426.5185539410267</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846266</v>
+        <v>426.5185539410267</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846266</v>
+        <v>426.5185539410267</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846266</v>
+        <v>359.4053378805172</v>
       </c>
       <c r="W4" t="n">
-        <v>746.7254979846266</v>
+        <v>359.4053378805172</v>
       </c>
       <c r="X4" t="n">
-        <v>557.305712968142</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="Y4" t="n">
-        <v>367.8859279516574</v>
+        <v>169.9855528640325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>360.3418313729548</v>
+        <v>714.6122027118944</v>
       </c>
       <c r="C5" t="n">
-        <v>360.3418313729548</v>
+        <v>714.6122027118944</v>
       </c>
       <c r="D5" t="n">
-        <v>360.3418313729548</v>
+        <v>361.8546931626451</v>
       </c>
       <c r="E5" t="n">
-        <v>360.3418313729548</v>
+        <v>361.8546931626451</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799841</v>
+        <v>354.9091924134416</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630042</v>
+        <v>342.2443073217437</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874574</v>
+        <v>80.99020340874631</v>
       </c>
       <c r="K5" t="n">
-        <v>211.239630562053</v>
+        <v>211.2396305620541</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458662</v>
+        <v>409.7273242458681</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973826</v>
+        <v>662.2525653973853</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365745</v>
+        <v>923.4777373365786</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477532</v>
+        <v>1156.809998477537</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169734</v>
+        <v>1321.45268416974</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815021</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815021</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815021</v>
+        <v>1249.420751151489</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815021</v>
+        <v>1249.420751151489</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815021</v>
+        <v>1249.420751151489</v>
       </c>
       <c r="V5" t="n">
-        <v>1065.85685047145</v>
+        <v>1067.369712261144</v>
       </c>
       <c r="W5" t="n">
-        <v>713.0993409222026</v>
+        <v>1067.369712261144</v>
       </c>
       <c r="X5" t="n">
-        <v>360.3418313729548</v>
+        <v>1067.369712261144</v>
       </c>
       <c r="Y5" t="n">
-        <v>360.3418313729548</v>
+        <v>714.6122027118944</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322.3243730218005</v>
+        <v>187.175849761756</v>
       </c>
       <c r="C6" t="n">
-        <v>147.8713437406735</v>
+        <v>187.175849761756</v>
       </c>
       <c r="D6" t="n">
-        <v>27.93839475630042</v>
+        <v>187.175849761756</v>
       </c>
       <c r="E6" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="F6" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="G6" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="H6" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="J6" t="n">
-        <v>40.7178415914307</v>
+        <v>40.71784159143104</v>
       </c>
       <c r="K6" t="n">
-        <v>140.714776437937</v>
+        <v>140.7147764379377</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824492</v>
+        <v>321.4955368824505</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158608</v>
+        <v>551.8150256158627</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947652</v>
+        <v>802.6390307947677</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.874197887849</v>
+        <v>1148.376665903987</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411833</v>
+        <v>1348.579058983955</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815021</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308342</v>
+        <v>1394.462033652206</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308342</v>
+        <v>1248.79655822429</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308342</v>
+        <v>1052.632151947301</v>
       </c>
       <c r="U6" t="n">
-        <v>1160.388865740557</v>
+        <v>1052.632151947301</v>
       </c>
       <c r="V6" t="n">
-        <v>1160.388865740557</v>
+        <v>817.4800437155586</v>
       </c>
       <c r="W6" t="n">
-        <v>906.1515090123553</v>
+        <v>563.2426869873569</v>
       </c>
       <c r="X6" t="n">
-        <v>698.3000088068225</v>
+        <v>355.3911867818241</v>
       </c>
       <c r="Y6" t="n">
-        <v>490.5397100418685</v>
+        <v>355.3911867818241</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>641.7942581768465</v>
+        <v>324.9449816665466</v>
       </c>
       <c r="C7" t="n">
-        <v>472.8580752489396</v>
+        <v>324.9449816665466</v>
       </c>
       <c r="D7" t="n">
-        <v>322.7414358366039</v>
+        <v>174.8283422542109</v>
       </c>
       <c r="E7" t="n">
-        <v>174.8283422542108</v>
+        <v>174.8283422542109</v>
       </c>
       <c r="F7" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="G7" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="H7" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="I7" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="K7" t="n">
-        <v>148.523310587469</v>
+        <v>148.5233105874694</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208639</v>
+        <v>358.3569215208646</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014273</v>
+        <v>589.9861665014284</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750246</v>
+        <v>821.5424021750262</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767885</v>
+        <v>1019.405768767887</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612031</v>
+        <v>1165.191378612033</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049271</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049271</v>
+        <v>1059.927283950959</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049271</v>
+        <v>1059.927283950959</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049271</v>
+        <v>835.031172013763</v>
       </c>
       <c r="U7" t="n">
-        <v>1182.690698049271</v>
+        <v>835.031172013763</v>
       </c>
       <c r="V7" t="n">
-        <v>1182.690698049271</v>
+        <v>580.3466838078762</v>
       </c>
       <c r="W7" t="n">
-        <v>1182.690698049271</v>
+        <v>545.7375608100767</v>
       </c>
       <c r="X7" t="n">
-        <v>1044.235302150616</v>
+        <v>545.7375608100767</v>
       </c>
       <c r="Y7" t="n">
-        <v>823.4427230070862</v>
+        <v>324.9449816665466</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1486.93224570035</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C8" t="n">
-        <v>1117.969728759938</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>759.7040301531875</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>373.9157775549433</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4835,19 +4835,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2204.594973108042</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>1873.532085764472</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1873.532085764472</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.532085764472</v>
+        <v>1674.463969937836</v>
       </c>
       <c r="Y8" t="n">
-        <v>1873.532085764472</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4893,16 +4893,16 @@
         <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2546.853055059249</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.715222610545</v>
+        <v>1092.823040066908</v>
       </c>
       <c r="V10" t="n">
-        <v>1140.030734404658</v>
+        <v>838.1385518610207</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>548.7213818240601</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.613315601761</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>888.6771326738537</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876671</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597602</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474245</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650314</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179068</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5516,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179067</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>593.6115863899998</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>443.4949469776641</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>295.581853395271</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614369</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179067</v>
       </c>
     </row>
     <row r="20">
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703132</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703132</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>545.3854261579775</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,13 +5987,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572603</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>377.6556127449245</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>377.6556127449245</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>210.4595134598044</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6361,22 +6361,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,16 +6546,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,22 +7017,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265844</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,16 +8137,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402857</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>74.0341892652893</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>152.8089368603737</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711115</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898949</v>
+        <v>41.92993463898918</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>139.9014828445809</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>53.74845207675148</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213303</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>36.58048154589929</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>40.64330621514807</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610424</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>43.72409101823415</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.96822242532905</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185644</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.46557462472188</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>180.5336875992881</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>24.81829093850965</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685132</v>
       </c>
     </row>
     <row r="35">
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>138.4949402405095</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333086</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>882204.292644196</v>
+        <v>882204.2926441961</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="16">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.619783004</v>
-      </c>
       <c r="H2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
@@ -26350,7 +26350,7 @@
         <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208452</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427116</v>
+        <v>178997.506142713</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731211</v>
+        <v>301519.8707731195</v>
       </c>
       <c r="E3" t="n">
         <v>507485.441624546</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267276</v>
+        <v>41617.52445267303</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019553</v>
+        <v>73739.30240019521</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26418,28 +26418,28 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806969</v>
+        <v>229588.1389806965</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979383</v>
+        <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184273</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
@@ -26454,10 +26454,10 @@
         <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029174</v>
+        <v>69851.97930029186</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351084.3124581737</v>
+        <v>-351084.3124581741</v>
       </c>
       <c r="C6" t="n">
-        <v>96291.61448129785</v>
+        <v>96291.61448129721</v>
       </c>
       <c r="D6" t="n">
-        <v>35116.36499409471</v>
+        <v>35116.36499409631</v>
       </c>
       <c r="E6" t="n">
-        <v>-57212.15977729142</v>
+        <v>-57246.89770272699</v>
       </c>
       <c r="F6" t="n">
-        <v>450273.2818472544</v>
+        <v>450238.543921819</v>
       </c>
       <c r="G6" t="n">
-        <v>450273.2818472542</v>
+        <v>450238.543921819</v>
       </c>
       <c r="H6" t="n">
-        <v>450273.2818472547</v>
+        <v>450238.5439218191</v>
       </c>
       <c r="I6" t="n">
-        <v>450273.2818472545</v>
+        <v>450238.543921819</v>
       </c>
       <c r="J6" t="n">
-        <v>401208.3371187102</v>
+        <v>401173.5991932744</v>
       </c>
       <c r="K6" t="n">
-        <v>408655.7573945818</v>
+        <v>408621.0194691462</v>
       </c>
       <c r="L6" t="n">
-        <v>376533.9794470589</v>
+        <v>376499.2415216237</v>
       </c>
       <c r="M6" t="n">
-        <v>317665.988118328</v>
+        <v>317631.2501928923</v>
       </c>
       <c r="N6" t="n">
-        <v>450273.2818472544</v>
+        <v>450238.5439218187</v>
       </c>
       <c r="O6" t="n">
-        <v>450273.2818472544</v>
+        <v>450238.5439218191</v>
       </c>
       <c r="P6" t="n">
-        <v>450273.2818472547</v>
+        <v>450238.543921819</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.66969199557</v>
+        <v>687.6696919955713</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537553</v>
+        <v>349.2299344537568</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826657</v>
+        <v>139.1997510826667</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219691</v>
+        <v>246.3952001219678</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874355</v>
+        <v>161.7043472874369</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462835</v>
+        <v>291.354897646282</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996096</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874358</v>
+        <v>161.7043472874368</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462835</v>
+        <v>291.3548976462822</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996096</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874355</v>
+        <v>161.7043472874369</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462835</v>
+        <v>291.354897646282</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996096</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>63.6436733987106</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>193.9188994094914</v>
+        <v>290.6404425531993</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510933</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121493</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.56296819369547</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550659</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>215.3002871593223</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>112.9412145948411</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553087</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27594,16 +27594,16 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>185.6955594239237</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271743</v>
+        <v>38.18406822271729</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577507</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>5.453107166926202</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>90.33487973200465</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397888</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908714</v>
+        <v>103.8974541908712</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969024</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27673,16 +27673,16 @@
         <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>147.5217299686926</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0110342636577343</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>20.50116622471376</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>37.00800420229683</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>28.71144607010942</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277717</v>
+        <v>97.95007950277714</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419597</v>
+        <v>38.47015094419588</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>5.888365900419263</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285477</v>
+        <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057245</v>
+        <v>5.686931024057088</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.535779957332</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>252.2599665687696</v>
       </c>
       <c r="X7" t="n">
-        <v>88.63881344936866</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>226.9887387682987</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>170.0858648972143</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>46.91356563188788</v>
+        <v>265.0090336922102</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-3.220922302743453e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28740,10 +28740,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-3.220922302743453e-13</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043116</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622678</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244293</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924575</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590849</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292672</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628871</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550072</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820367</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620012</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.9254218111419</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784856</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647908</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181393</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354048</v>
+        <v>2.764501274354053</v>
       </c>
       <c r="H5" t="n">
-        <v>28.3119486759784</v>
+        <v>28.31194867597846</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795346</v>
+        <v>106.5784353795347</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342071</v>
+        <v>234.6335900342075</v>
       </c>
       <c r="K5" t="n">
-        <v>351.654928977614</v>
+        <v>351.6549289776147</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526268</v>
+        <v>436.2590348526276</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904206</v>
+        <v>485.4222343904215</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361791</v>
+        <v>493.27687363618</v>
       </c>
       <c r="O5" t="n">
-        <v>465.787364089321</v>
+        <v>465.7873640893218</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787054</v>
+        <v>397.5387388787061</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909009</v>
+        <v>298.5350369909015</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751426</v>
+        <v>173.6556031751429</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934294</v>
+        <v>62.99607278934305</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848485</v>
+        <v>12.10160432848487</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483238</v>
+        <v>0.2211601019483242</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782924</v>
+        <v>1.479138582782927</v>
       </c>
       <c r="H6" t="n">
-        <v>14.2853647337193</v>
+        <v>14.28536473371932</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721911</v>
+        <v>50.9264819072192</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233639</v>
+        <v>139.7461588233642</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698198</v>
+        <v>238.8484438698203</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117047</v>
+        <v>321.1612085117053</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375856</v>
+        <v>374.7799821375863</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721256</v>
+        <v>384.6992930721262</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536197</v>
+        <v>351.9246960536203</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122937</v>
+        <v>282.4505948122942</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022554</v>
+        <v>188.8107426022557</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103106</v>
+        <v>91.83634113103123</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020035</v>
+        <v>27.4743504302004</v>
       </c>
       <c r="T6" t="n">
-        <v>5.9619664806031</v>
+        <v>5.961966480603111</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729768</v>
+        <v>0.09731174886729786</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.24006010031988</v>
+        <v>1.240060100319883</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920767</v>
+        <v>11.02526161920769</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871059</v>
+        <v>37.29198919871066</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261553</v>
+        <v>87.67224909261569</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098915</v>
+        <v>144.0724371098918</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966484</v>
+        <v>184.3631170966488</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619608</v>
+        <v>194.3850573619612</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698596</v>
+        <v>189.76301516986</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433955</v>
+        <v>175.2768585433958</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968698</v>
+        <v>149.9796324968701</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913311</v>
+        <v>103.8381234913313</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983751</v>
+        <v>55.75761141983761</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648372</v>
+        <v>21.61086556648376</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457668</v>
+        <v>5.298438610457678</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562991</v>
+        <v>0.06763964183563004</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,28 +32309,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965806</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33266,19 +33266,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>689.3300812557329</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,25 +33737,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663297</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867967</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788321</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915973</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065964</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781461</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855685</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076499</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175002</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663197</v>
+        <v>168.9203199809852</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732829</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
         <v>116.8989542469472</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752083</v>
+        <v>53.58768550752126</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326335</v>
+        <v>131.5650779326342</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826396</v>
+        <v>200.4926198826404</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631479</v>
+        <v>255.0760011631488</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395882</v>
+        <v>263.8638100395891</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676343</v>
+        <v>235.6891526676351</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234358</v>
+        <v>166.3057431234366</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645146</v>
+        <v>76.22934711645198</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669725</v>
+        <v>12.90853215669748</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954609</v>
+        <v>101.0070048954613</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318305</v>
+        <v>182.6068287318311</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155673</v>
+        <v>232.645948215568</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887923</v>
+        <v>253.3575809887929</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091753</v>
+        <v>349.2299344537568</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979634</v>
+        <v>202.2246394747154</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375642</v>
+        <v>48.82896851623423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840086</v>
+        <v>121.8029452840089</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569645</v>
+        <v>211.9531423569649</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238014</v>
+        <v>233.9689343238018</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490882</v>
+        <v>233.8951875490885</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574352</v>
+        <v>199.8619864574355</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617633</v>
+        <v>147.2581917617636</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963669</v>
+        <v>17.67608023963687</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35261,19 +35261,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.64270034434938</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745623</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066241</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36914,19 +36914,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>557.9883691723996</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37482,7 +37482,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060471</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
